--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E64EF7-B26A-4937-AF47-F37AEB760C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F463F-8CD8-4F14-AEB5-C9A4D25B4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27150" yWindow="3045" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>num1000_lam0.03_change0__1.txt</t>
   </si>
@@ -124,35 +124,30 @@
   </si>
   <si>
     <t>队名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提交时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均达成率</t>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>紫竹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世王者</t>
+  </si>
+  <si>
+    <t>HUSTLab</t>
   </si>
   <si>
     <t>算无遗策队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱世王者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hahaha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均达成率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -234,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -587,7 +585,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -682,13 +680,12 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
         <v>45845</v>
       </c>
       <c r="C2" s="4">
-        <f>AVERAGE(D2:AG2)</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -784,13 +781,12 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>45848</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="0">AVERAGE(D3:AG3)</f>
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -892,7 +888,6 @@
         <v>45856</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="7">
@@ -988,205 +983,304 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77807333333333328</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>0.94599999999999995</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>0.94199999999999995</v>
+        <v>1</v>
       </c>
       <c r="L5" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N5" s="6">
-        <v>0.77200000000000002</v>
+        <v>1</v>
       </c>
       <c r="O5" s="6">
-        <v>0.79239999999999999</v>
+        <v>1</v>
       </c>
       <c r="P5" s="6">
-        <v>0.80820000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="6">
-        <v>0.80059999999999998</v>
+        <v>1</v>
       </c>
       <c r="R5" s="6">
-        <v>0.9456</v>
+        <v>1</v>
       </c>
       <c r="S5" s="6">
-        <v>0.93420000000000003</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>0.92020000000000002</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6">
-        <v>0.96419999999999995</v>
+        <v>1</v>
       </c>
       <c r="V5" s="6">
-        <v>0.97160000000000002</v>
+        <v>1</v>
       </c>
       <c r="W5" s="6">
-        <v>0.9748</v>
+        <v>1</v>
       </c>
       <c r="X5" s="6">
-        <v>0.317</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="6">
-        <v>0.32150000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="6">
-        <v>0.3014</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="6">
-        <v>0.29120000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="6">
-        <v>0.55830000000000002</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="6">
-        <v>0.51319999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="6">
-        <v>0.5131</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="6">
-        <v>0.66049999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="6">
-        <v>0.64759999999999995</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="6">
-        <v>0.66359999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
+        <v>45852</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M6">
+        <v>0.96</v>
+      </c>
+      <c r="N6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.9456</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="X6">
+        <v>0.317</v>
+      </c>
+      <c r="Y6">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.3014</v>
+      </c>
+      <c r="AA6">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.5131</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.66359999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5">
         <v>45858</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.38774333333333338</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C7" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0.96299999999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.97</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="1">
         <v>0.84160000000000001</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="1">
         <v>0.8498</v>
       </c>
-      <c r="Q6">
+      <c r="Q7" s="1">
         <v>0.85240000000000005</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>0.3604</v>
       </c>
-      <c r="Y6">
+      <c r="Y7" s="1">
         <v>0.36980000000000002</v>
       </c>
-      <c r="Z6">
+      <c r="Z7" s="1">
         <v>0.35260000000000002</v>
       </c>
-      <c r="AA6">
+      <c r="AA7" s="1">
         <v>0.3337</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
         <v>0</v>
       </c>
     </row>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F463F-8CD8-4F14-AEB5-C9A4D25B4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A6A36-024B-49A0-AE16-E648452C19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="3045" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1084,204 +1084,204 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5">
-        <v>45852</v>
+        <v>45861</v>
       </c>
       <c r="C6" s="4">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.94599999999999995</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0.94199999999999995</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.77200000000000002</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.79239999999999999</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.80820000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.80059999999999998</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0.9456</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0.93420000000000003</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>0.92020000000000002</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>0.96419999999999995</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>0.97160000000000002</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0.9748</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.317</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.32150000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.3014</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.29120000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.55830000000000002</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.51319999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.5131</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.66049999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.64759999999999995</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.66359999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
-        <v>45858</v>
+        <v>45852</v>
       </c>
       <c r="C7" s="8">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="D7" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F7" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.98399999999999999</v>
-      </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="M7" s="1">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="N7" s="1">
-        <v>0.82399999999999995</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>0.84160000000000001</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="P7" s="1">
-        <v>0.8498</v>
+        <v>0.80820000000000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.85240000000000005</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.9456</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>0.9748</v>
       </c>
       <c r="X7" s="1">
-        <v>0.3604</v>
+        <v>0.317</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.36980000000000002</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.35260000000000002</v>
+        <v>0.3014</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.3337</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.55830000000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>0.5131</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>0.66049999999999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="AG7" s="1">
-        <v>0</v>
+        <v>0.66359999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A6A36-024B-49A0-AE16-E648452C19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804179A1-6EA8-4ACB-A2AF-1A47EF100F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>num1000_lam0.03_change0__1.txt</t>
   </si>
@@ -124,30 +124,57 @@
   </si>
   <si>
     <t>队名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫竹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算无遗策队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世王者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>平均达成率</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>紫竹</t>
-  </si>
-  <si>
-    <t>乱世王者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HUSTLab</t>
-  </si>
-  <si>
-    <t>算无遗策队</t>
-  </si>
-  <si>
-    <t>hahaha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num2000_lam0.05_change0__1.txt</t>
+  </si>
+  <si>
+    <t>num2000_lam0.05_change0__2.txt</t>
+  </si>
+  <si>
+    <t>num2000_lam0.05_change0__3.txt</t>
+  </si>
+  <si>
+    <t>num2000_lam0.05_change0__4.txt</t>
+  </si>
+  <si>
+    <t>num2000_lam0.05_change0__5.txt</t>
+  </si>
+  <si>
+    <t>专业团队</t>
   </si>
 </sst>
 </file>
@@ -229,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,14 +273,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,26 +582,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="40.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="43.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="44.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="38" width="6.6328125" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -585,7 +605,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -677,16 +697,32 @@
       <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AH1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3">
         <v>45845</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <f t="shared" ref="C2:C7" si="0">AVERAGE(D2:AL2)</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -778,109 +814,140 @@
       <c r="AG2" s="1">
         <v>1</v>
       </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>45848</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="X3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -888,7 +955,8 @@
         <v>45856</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -980,218 +1048,266 @@
       <c r="AG4" s="7">
         <v>1</v>
       </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>45859</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>45861</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>45852</v>
       </c>
-      <c r="C7" s="8">
-        <v>0.78</v>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66691999999999996</v>
       </c>
       <c r="D7" s="1">
         <v>0.97899999999999998</v>
@@ -1283,8 +1399,144 @@
       <c r="AG7" s="1">
         <v>0.66359999999999997</v>
       </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45861</v>
+      </c>
+      <c r="C8" s="4">
+        <f>AVERAGE(D8:AL8)</f>
+        <v>0.6344914285714286</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.7258</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.9234</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.2429</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0.2157</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.4526</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG9">
+    <sortCondition descending="1" ref="C2:C9"/>
+    <sortCondition ref="B2:B9"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804179A1-6EA8-4ACB-A2AF-1A47EF100F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8652C7EC-C1F7-432A-B024-C7736351EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +278,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,7 +591,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -714,131 +720,131 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45845</v>
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45862</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C7" si="0">AVERAGE(D2:AL2)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1">
+        <f>AVERAGE(D2:AL2)</f>
+        <v>0.95588571428571412</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>1</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="7">
         <v>1</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>0</v>
+        <v>0.91449999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45848</v>
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45845</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D3:AL3)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="D3" s="1">
@@ -949,103 +955,103 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5">
-        <v>45856</v>
+        <v>45848</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:AL4)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-      <c r="W4" s="7">
-        <v>1</v>
-      </c>
-      <c r="X4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="7">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
         <v>1</v>
       </c>
       <c r="AH4" s="1">
@@ -1072,7 +1078,7 @@
         <v>45859</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D5:AL5)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="D5" s="1">
@@ -1189,7 +1195,7 @@
         <v>45861</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:AL6)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="D6" s="7">
@@ -1306,7 +1312,7 @@
         <v>45852</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D7:AL7)</f>
         <v>0.66691999999999996</v>
       </c>
       <c r="D7" s="1">
@@ -1533,9 +1539,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG9">
-    <sortCondition descending="1" ref="C2:C9"/>
-    <sortCondition ref="B2:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL8">
+    <sortCondition descending="1" ref="C2:C8"/>
+    <sortCondition ref="B2:B8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8652C7EC-C1F7-432A-B024-C7736351EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB4696-C913-4928-BACF-6CA1CF5298B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>num1000_lam0.03_change0__1.txt</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>专业团队</t>
+  </si>
+  <si>
+    <t>算法新星</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1306,104 +1309,104 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
-        <v>45852</v>
+        <v>45862</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(D7:AL7)</f>
-        <v>0.66691999999999996</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.79239999999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.80820000000000003</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.9456</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.93420000000000003</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0.317</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0.3014</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0.51319999999999999</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0.5131</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.64759999999999995</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.66359999999999997</v>
+        <v>0.81489714285714288</v>
+      </c>
+      <c r="D7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.99</v>
+      </c>
+      <c r="F7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.995</v>
+      </c>
+      <c r="K7">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T7">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V7">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="X7">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AA7">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="AG7">
+        <v>0.94810000000000005</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>
@@ -1423,125 +1426,242 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
-        <v>45861</v>
+        <v>45852</v>
       </c>
       <c r="C8" s="4">
         <f>AVERAGE(D8:AL8)</f>
+        <v>0.66691999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.9456</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.3014</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.5131</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45861</v>
+      </c>
+      <c r="C9" s="4">
+        <f>AVERAGE(D9:AL9)</f>
         <v>0.6344914285714286</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>0.96299999999999997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>0.92100000000000004</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>0.96899999999999997</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>0.97699999999999998</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>0.97899999999999998</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="7">
         <v>0.89600000000000002</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="7">
         <v>0.96699999999999997</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="7">
         <v>0.68859999999999999</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="7">
         <v>0.70660000000000001</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P9" s="7">
         <v>0.7258</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q9" s="7">
         <v>0.71760000000000002</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R9" s="7">
         <v>0.9234</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S9" s="7">
         <v>0.90080000000000005</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T9" s="7">
         <v>0.88759999999999994</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U9" s="7">
         <v>0.95279999999999998</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V9" s="7">
         <v>0.95920000000000005</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W9" s="7">
         <v>0.96419999999999995</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X9" s="7">
         <v>0.2429</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y9" s="7">
         <v>0.24679999999999999</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z9" s="7">
         <v>0.22869999999999999</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA9" s="7">
         <v>0.2157</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB9" s="7">
         <v>0.49580000000000002</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC9" s="7">
         <v>0.4526</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD9" s="7">
         <v>0.44669999999999999</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE9" s="7">
         <v>0.62229999999999996</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF9" s="7">
         <v>0.60329999999999995</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG9" s="7">
         <v>0.61629999999999996</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
         <v>0.01</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL9" s="7">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL8">
-    <sortCondition descending="1" ref="C2:C8"/>
-    <sortCondition ref="B2:B8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL9">
+    <sortCondition descending="1" ref="C2:C9"/>
+    <sortCondition ref="B2:B9"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB4696-C913-4928-BACF-6CA1CF5298B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10A040-4CB5-4F34-93CD-DFEC5339A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -840,128 +840,128 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45845</v>
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45862</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(D3:AL3)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1</v>
+        <v>0.86981142857142857</v>
+      </c>
+      <c r="D3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.99</v>
+      </c>
+      <c r="F3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.995</v>
+      </c>
+      <c r="K3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S3">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="X3">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="AD3">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="AG3">
+        <v>0.94810000000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>0</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>0.60150000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45848</v>
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45845</v>
       </c>
       <c r="C4" s="4">
         <f>AVERAGE(D4:AL4)</f>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
-        <v>45859</v>
+        <v>45848</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(D5:AL5)</f>
@@ -1192,103 +1192,103 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="C6" s="4">
         <f>AVERAGE(D6:AL6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
         <v>1</v>
       </c>
       <c r="AH6" s="1">
@@ -1309,104 +1309,104 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(D7:AL7)</f>
-        <v>0.81489714285714288</v>
-      </c>
-      <c r="D7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.99</v>
-      </c>
-      <c r="F7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.995</v>
-      </c>
-      <c r="K7">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="R7">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="S7">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T7">
-        <v>0.99539999999999995</v>
-      </c>
-      <c r="U7">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="V7">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="W7">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="X7">
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="Y7">
-        <v>0.79659999999999997</v>
-      </c>
-      <c r="Z7">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="AA7">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="AD7">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="AE7">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="AF7">
-        <v>0.94430000000000003</v>
-      </c>
-      <c r="AG7">
-        <v>0.94810000000000005</v>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10A040-4CB5-4F34-93CD-DFEC5339A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC849E-B77F-45C9-A7DB-543F2A0546AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1429,101 +1429,101 @@
         <v>34</v>
       </c>
       <c r="B8" s="5">
-        <v>45852</v>
+        <v>45862</v>
       </c>
       <c r="C8" s="4">
         <f>AVERAGE(D8:AL8)</f>
-        <v>0.66691999999999996</v>
+        <v>0.85711428571428572</v>
       </c>
       <c r="D8" s="1">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.94599999999999995</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0.94199999999999995</v>
+        <v>0.999</v>
       </c>
       <c r="L8" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0.77200000000000002</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0.79239999999999999</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0.80820000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.80059999999999998</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0.9456</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0.93420000000000003</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0.92020000000000002</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0.96419999999999995</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0.97160000000000002</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0.9748</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0.317</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.32150000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.3014</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.29120000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.55830000000000002</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.51319999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.5131</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0.66049999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.64759999999999995</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.66359999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC849E-B77F-45C9-A7DB-543F2A0546AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109859DD-1085-4B68-9197-71B9B47EEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -841,131 +841,131 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(D3:AL3)</f>
-        <v>0.86981142857142857</v>
-      </c>
-      <c r="D3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.99</v>
-      </c>
-      <c r="F3">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J3">
-        <v>0.995</v>
-      </c>
-      <c r="K3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="N3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="O3">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="P3">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="R3">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="S3">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T3">
-        <v>0.99539999999999995</v>
-      </c>
-      <c r="U3">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="V3">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="W3">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="X3">
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="Y3">
-        <v>0.79659999999999997</v>
-      </c>
-      <c r="Z3">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="AA3">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="AC3">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="AD3">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="AE3">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="AF3">
-        <v>0.94430000000000003</v>
-      </c>
-      <c r="AG3">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0.28549999999999998</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0.60150000000000003</v>
+        <v>0.94975714285714297</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AI3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45845</v>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45848</v>
       </c>
       <c r="C4" s="4">
         <f>AVERAGE(D4:AL4)</f>
-        <v>0.8571428571428571</v>
+        <v>0.94351428571428564</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1057,145 +1057,145 @@
       <c r="AG4" s="1">
         <v>1</v>
       </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
+      <c r="AH4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.442</v>
+      </c>
+      <c r="AK4">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AL4">
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(D5:AL5)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
+        <v>0.86981142857142857</v>
+      </c>
+      <c r="D5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.99</v>
+      </c>
+      <c r="F5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.995</v>
+      </c>
+      <c r="K5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="U5">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="X5">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="Z5">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AA5">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.94810000000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>0.60150000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45859</v>
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45845</v>
       </c>
       <c r="C6" s="4">
         <f>AVERAGE(D6:AL6)</f>
@@ -1309,103 +1309,103 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(D7:AL7)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
-      <c r="W7" s="7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="7">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
         <v>1</v>
       </c>
       <c r="AH7" s="1">

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109859DD-1085-4B68-9197-71B9B47EEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762780FE-110B-492F-BDF4-5FB041BBC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="5">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(D3:AL3)</f>
@@ -958,14 +958,14 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="C4" s="4">
         <f>AVERAGE(D4:AL4)</f>
-        <v>0.94351428571428564</v>
+        <v>0.94960000000000011</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1058,261 +1058,261 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.55600000000000005</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.54949999999999999</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="AJ4">
-        <v>0.442</v>
+        <v>0.45350000000000001</v>
       </c>
       <c r="AK4">
-        <v>0.67800000000000005</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="AL4">
-        <v>0.79749999999999999</v>
+        <v>0.83650000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(D5:AL5)</f>
-        <v>0.86981142857142857</v>
-      </c>
-      <c r="D5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.99</v>
-      </c>
-      <c r="F5">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.995</v>
-      </c>
-      <c r="K5">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="R5">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="S5">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="T5">
-        <v>0.99539999999999995</v>
-      </c>
-      <c r="U5">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="V5">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="W5">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="X5">
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="Y5">
-        <v>0.79659999999999997</v>
-      </c>
-      <c r="Z5">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="AA5">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="AB5">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="AC5">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="AD5">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="AE5">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="AF5">
-        <v>0.94430000000000003</v>
-      </c>
-      <c r="AG5">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0.28549999999999998</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0.60150000000000003</v>
+        <v>0.94351428571428564</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AI5">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.442</v>
+      </c>
+      <c r="AK5">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AL5">
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45845</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45862</v>
       </c>
       <c r="C6" s="4">
         <f>AVERAGE(D6:AL6)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1</v>
+        <v>0.86981142857142857</v>
+      </c>
+      <c r="D6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.99</v>
+      </c>
+      <c r="F6">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.995</v>
+      </c>
+      <c r="K6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="S6">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="V6">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="X6">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="AD6">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="AG6">
+        <v>0.94810000000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>0.60150000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45859</v>
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45845</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(D7:AL7)</f>
